--- a/biology/Zoologie/Bec-en-cheville_gris/Bec-en-cheville_gris.xlsx
+++ b/biology/Zoologie/Bec-en-cheville_gris/Bec-en-cheville_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthidops bairdi
 Le Bec-en-cheville gris (Acanthidops bairdi) est une espèce de passereau de la famille des Thraupidae. C'est la seule espèce du genre Acanthidops.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 13,5 cm de longueur. Il présente un dimorphisme sexuel : le mâle est gris ardoise et la femelle brun grisâtre avec les parties inférieures plus pâles et légèrement rayées. Le bec étroit et pointu paraît retroussé avec la mandibule supérieure noire et l'inférieure jaune (moins vive chez la femelle)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 13,5 cm de longueur. Il présente un dimorphisme sexuel : le mâle est gris ardoise et la femelle brun grisâtre avec les parties inférieures plus pâles et légèrement rayées. Le bec étroit et pointu paraît retroussé avec la mandibule supérieure noire et l'inférieure jaune (moins vive chez la femelle).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit au Costa Rica (notamment dans la cordillère de Tilarán[1]) et au Panama[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit au Costa Rica (notamment dans la cordillère de Tilarán) et au Panama.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les lisières épaisses en haute altitude principalement au-dessus de 2 000 m jusqu'à la limite des arbres. À la saison des pluies, il fréquente des zones plus basses. Il vit en particulier dans les fourrés de bambous.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme du nectar, des petits invertébrés, des graines et des fruits.
 </t>
